--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D62B2-667E-452F-86BD-D1D5AFD23939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBBBA8-349B-4B36-81CE-375D9D7FAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Create a set to record the appeared element, 1 for loop to check</t>
   </si>
   <si>
-    <t>create 2 hashmap (dict) to store the appearance &amp; num of appeared char, then compare 2 maps</t>
-  </si>
-  <si>
     <t>OOD questions</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>use 2 array recording product of all elements to the left &amp; right of currElement, then times leftProduct &amp; rightProduct accordingly</t>
+  </si>
+  <si>
+    <t>659 · Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>encode: length + deli + str ("leet", "code" -&gt; 4#leet4#code); Decode: use 2 pointers in 2 while loop to get length then append to list.  [join -&gt; split method does NOT consider the special characters]</t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>visualise it in a 数轴; use a set to achieve fast lookup; starting element has no leftNeighbour, ending element has no rightNeighbour</t>
+  </si>
+  <si>
+    <t>a tuple of list of char appearance (len=26, count[ord(char) - ord('a')] += 1/ create 2 hashmap (dict) to store the appearance &amp; num of appeared char, then compare 2 maps</t>
   </si>
 </sst>
 </file>
@@ -413,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="192.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -455,40 +467,62 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBBBA8-349B-4B36-81CE-375D9D7FAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289977F7-4F73-4188-AA84-51BABCCCAB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>a tuple of list of char appearance (len=26, count[ord(char) - ord('a')] += 1/ create 2 hashmap (dict) to store the appearance &amp; num of appeared char, then compare 2 maps</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>2 pointers: 1 from head, 1 from tail; use string.isalnum() to check if it is alphanumeric</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>sort the array first, then fo each element perform a 2 sum; careful of the duplicate element</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>one pointer travelling from 0 and one from the right most, keep moving smaller ptrs</t>
   </si>
 </sst>
 </file>
@@ -141,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +545,44 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289977F7-4F73-4188-AA84-51BABCCCAB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A02A1D-0995-4AFF-9DB7-962F344D4187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>one pointer travelling from 0 and one from the right most, keep moving smaller ptrs</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>2 ptrs: update left to right if price[left] &gt;= price[right], compare price, keep moving right ptr</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>right ptr keep going and add element to set if not already in; if already in, keep moving left ptr and removing s[left] until not in. compute</t>
+  </si>
+  <si>
+    <t>424. Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>create a dict to keep track of the most frequent char; move the window left border to right while len - max(freqMap.values()) &lt; k</t>
   </si>
 </sst>
 </file>
@@ -447,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="192.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -548,7 +569,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -583,6 +604,44 @@
       </c>
       <c r="C13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A02A1D-0995-4AFF-9DB7-962F344D4187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB039517-F93F-4809-9A5D-E5F9840E8C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -136,6 +136,34 @@
   </si>
   <si>
     <t>create a dict to keep track of the most frequent char; move the window left border to right while len - max(freqMap.values()) &lt; k</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+need is num of unique char in T, HAVE is num of char we have valid count for, sliding window, move right until valid, if valid, increment left until invalid, to check validity keep track if the count of each unique char is satisfied;</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Binary search</t>
+  </si>
+  <si>
+    <t>at most two sorted halfs, mid will be apart of left sorted or right sorted, if target is in range of sorted portion then search it, otherwise search other half</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>keep track of a min value; if min is at RHS (nums[mid] &gt; nums[right]), search right, else search left</t>
   </si>
 </sst>
 </file>
@@ -151,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC688B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,17 +217,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFC688B"/>
+      <color rgb="FFFFCEC9"/>
+      <color rgb="FFB80892"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -468,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +649,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -642,6 +684,57 @@
       </c>
       <c r="C17" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB039517-F93F-4809-9A5D-E5F9840E8C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2142633-7B52-4D23-B94C-D174ADF2A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -164,6 +164,27 @@
   </si>
   <si>
     <t>keep track of a min value; if min is at RHS (nums[mid] &gt; nums[right]), search right, else search left</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>iterate through maintaining cur and prev; recursively reverse, return new head of list</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>create dummy node to avoid edge cases; insert each node from one list into the other</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>fast slow pointer</t>
   </si>
 </sst>
 </file>
@@ -217,11 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,13 +707,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -735,6 +755,44 @@
       </c>
       <c r="C23" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2142633-7B52-4D23-B94C-D174ADF2A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E03E8-49C2-4919-B846-132595A5D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>fast slow pointer</t>
+  </si>
+  <si>
+    <t>143. Reorder List</t>
+  </si>
+  <si>
+    <t>use deque, remember to point to None at the last node; For O(1) space: 1. break the LL into half 2. reverse the 2nd half 3. merge the 2 halfs</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>O(2n): go through the list to find the tail, do some math to skip the node; O(n): initiate right ptr n+1 space from left ptr (dummy node), move both ptrs to the end of the list, left.next is the node to be removed.</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>brute force O(kn), merge every list 1 by 1 using merge 2 sorted array; faster O(nlog(k)), like merge sort</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +811,39 @@
       </c>
       <c r="C27" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E03E8-49C2-4919-B846-132595A5D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7D59A-A2FA-4665-B610-7CA04D786870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="17355" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>brute force O(kn), merge every list 1 by 1 using merge 2 sorted array; faster O(nlog(k)), like merge sort</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree.py</t>
+  </si>
+  <si>
+    <t>recursive dfs O(n): base case - when root is None, return 0; return 1 + max(left, right); iterative BFS O(n): use a queue to kepp track of levels;iterative DFS O(n): use a stack storing node &amp; length to simulate call stack</t>
+  </si>
+  <si>
+    <t>recursive dfs, compare node by node (return self.isSameTree(p.left, q.left) and self.isSameTree(p.right, q.right))</t>
   </si>
 </sst>
 </file>
@@ -548,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +862,41 @@
       </c>
       <c r="C30" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7D59A-A2FA-4665-B610-7CA04D786870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCA39C-B004-43E0-8E06-8849D076077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="17355" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -221,6 +221,27 @@
   </si>
   <si>
     <t>recursive dfs, compare node by node (return self.isSameTree(p.left, q.left) and self.isSameTree(p.right, q.right))</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>go through every node of tree, compare with subtree using "same tree" solution</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>It is a BST, left &gt; node &gt; right, so LCA must be in the middle or being 1 of p/ q; go left if p &amp; q &lt; curr, go right if p&amp;q &gt;curr, return curr</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use a queue(deque), keep popping, and append the same level node in a list to the deque </t>
   </si>
 </sst>
 </file>
@@ -566,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="192.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -897,6 +918,39 @@
       </c>
       <c r="C34" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCA39C-B004-43E0-8E06-8849D076077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B3CA1-082C-4991-B7AF-A95B3FCF6FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -242,6 +242,24 @@
   </si>
   <si>
     <t xml:space="preserve">use a queue(deque), keep popping, and append the same level node in a list to the deque </t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>O(n), for each node, compare with max &amp; min value; for left node, update max, for right node, update min</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>slow: in-order DFS to generate a list then return; fast: use a stack to iteratively generate in-order list, while stack or curr: go to the left most child &amp; push all nodes onto the stack, process the currNode when no more left child, then go to right child if there is one</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree, recursively build subtrees;</t>
   </si>
 </sst>
 </file>
@@ -587,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="192.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -951,6 +969,39 @@
       </c>
       <c r="C37" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B3CA1-082C-4991-B7AF-A95B3FCF6FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6ADF73-C7A0-4E07-AF16-F3FE9A8D00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -260,6 +260,27 @@
   </si>
   <si>
     <t>first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree, recursively build subtrees;</t>
+  </si>
+  <si>
+    <t>helper returns maxpathsum without splitting branches, inside helper we also update maxSum by computing maxpathsum WITH a split;</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS to generate preorder list; recursively deserialize(), use global variable i to keep track</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>USE HASHMAP! create TrieNode class: self.child = {}; self.endOfNode = False; all methods are just a single for loop for input</t>
   </si>
 </sst>
 </file>
@@ -313,11 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,6 +1024,44 @@
       </c>
       <c r="C40" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6ADF73-C7A0-4E07-AF16-F3FE9A8D00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3175EA2C-D405-4CDF-B4E0-02C20441C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>USE HASHMAP! create TrieNode class: self.child = {}; self.endOfNode = False; all methods are just a single for loop for input</t>
+  </si>
+  <si>
+    <t>if char = "." run search for remaining portion of word on all of curr nodes children;</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>trick: I though use trie to store the grid, reverse thinking, instead store dictionary words, dfs on each cell, check if cell's char exists as child of root node in trie, if it does, update currNode, and check neighbors, a word could exist multiple times in grid, so don’t add duplicates;</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>Heap/Priority Queue</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>dfs on each cell, for each search remember visited cells, and remove cur visited cell right before you return from dfs;</t>
   </si>
 </sst>
 </file>
@@ -334,12 +358,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -949,7 +972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -960,7 +983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -971,7 +994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -982,7 +1005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -993,7 +1016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -1004,7 +1027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -1015,7 +1038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -1026,7 +1049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -1048,12 +1071,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -1062,6 +1085,52 @@
       </c>
       <c r="C44" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3175EA2C-D405-4CDF-B4E0-02C20441C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48BF519-C56D-445B-B76F-88DEE7B36FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -305,16 +305,63 @@
   </si>
   <si>
     <t>dfs on each cell, for each search remember visited cells, and remove cur visited cell right before you return from dfs;</t>
+  </si>
+  <si>
+    <t>Heap:</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove </t>
+  </si>
+  <si>
+    <t>for max heap, find max - O(1)</t>
+  </si>
+  <si>
+    <t>for min heap, find min - O(1)</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>use 2 Heaps; small heap is max heap, and large heap is Min heap ; if value is &gt; large.min(), add it to the large, else push it to small heap;then check for length</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/binary-heap/</t>
+  </si>
+  <si>
+    <t>1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t>max heap, remember to *-1 for constructing max heap</t>
+  </si>
+  <si>
+    <t>703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>use minHeap with size K to store only the largest K element, return minHeap[0] for the Kth largest element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,16 +402,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,19 +1167,52 @@
         <v>85</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1141,20 +1224,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BB6CF9A3-D2F2-4445-B402-FE3DE89317A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48BF519-C56D-445B-B76F-88DEE7B36FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0D5D5-7E4E-45EA-A387-012FD5F5A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -344,6 +344,42 @@
   </si>
   <si>
     <t>use minHeap with size K to store only the largest K element, return minHeap[0] for the Kth largest element</t>
+  </si>
+  <si>
+    <t>973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>asking for smallest K, use min heap to pop k times or use max heap keeping the size to k; REMEMBER: heapq.heappush([dist, x, y]) will order by dist</t>
+  </si>
+  <si>
+    <t>1299. Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>Reverse traversal to get newMax; use hashmap: O(n) space &amp; O(2n) time; no hashmap, calc new max -&gt; update arr -&gt;assign new max: O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>create 3 hashMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//3, c//3; O(n), loop once only and store seen values in 3 hashmaps if not seen</t>
+  </si>
+  <si>
+    <t>create T asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//T, c//T; O(n), loop once only and store seen values in T asmaps if not seen</t>
+  </si>
+  <si>
+    <t>create S asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//S, c//S; O(n), loop once only and store seen values in S asmaps if not seen</t>
+  </si>
+  <si>
+    <t>create 2 yasyMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//2, c//2; O(n), loop once only and store seen values in 2 yasymaps if not seen</t>
+  </si>
+  <si>
+    <t>create B asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//B, c//B; O(n), loop once only and store seen values in B asmaps if not seen</t>
+  </si>
+  <si>
+    <t>create L asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//L, c//L; O(n), loop once only and store seen values in L asmaps if not seen</t>
+  </si>
+  <si>
+    <t>create 2 nasnMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//2, c//2; O(n), loop once only and store seen values in 2 nasnmaps if not seen</t>
   </si>
 </sst>
 </file>
@@ -700,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,473 +782,506 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
+      <c r="A28" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
+      <c r="A29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
+      <c r="A30" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>81</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0D5D5-7E4E-45EA-A387-012FD5F5A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DACB8-4B8E-424D-B49A-EBF1103A3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -364,22 +364,22 @@
     <t>create 3 hashMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//3, c//3; O(n), loop once only and store seen values in 3 hashmaps if not seen</t>
   </si>
   <si>
-    <t>create T asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//T, c//T; O(n), loop once only and store seen values in T asmaps if not seen</t>
-  </si>
-  <si>
-    <t>create S asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//S, c//S; O(n), loop once only and store seen values in S asmaps if not seen</t>
-  </si>
-  <si>
-    <t>create 2 yasyMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//2, c//2; O(n), loop once only and store seen values in 2 yasymaps if not seen</t>
-  </si>
-  <si>
-    <t>create B asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//B, c//B; O(n), loop once only and store seen values in B asmaps if not seen</t>
-  </si>
-  <si>
-    <t>create L asMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//L, c//L; O(n), loop once only and store seen values in L asmaps if not seen</t>
-  </si>
-  <si>
-    <t>create 2 nasnMaps roe row, col &amp; blks to store seen value; blks are (0,0) (0,1) (0,2) etc, r//2, c//2; O(n), loop once only and store seen values in 2 nasnmaps if not seen</t>
+    <t>392. Is Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse traversal both strings in a while loop, if 2 ele equal, i-- and j-- and s[:-1], else j-- only; at the end if len(s) == 0, true, else false </t>
+  </si>
+  <si>
+    <t>58. Length of Last Word</t>
+  </si>
+  <si>
+    <t>Reverse traversal, 2 while loop: 1 for finding the last non " "element, 1 for finding the len of last word</t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>return res when condition breaks (s OB or not equal to str[0][i])</t>
   </si>
 </sst>
 </file>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,495 +793,528 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>106</v>
+      <c r="A7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
+      <c r="A8" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>62</v>
       </c>
       <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="D47">
+      <c r="D50">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DACB8-4B8E-424D-B49A-EBF1103A3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD59152-E9DD-4B1C-9559-446F4BADE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -380,6 +380,27 @@
   </si>
   <si>
     <t>return res when condition breaks (s OB or not equal to str[0][i])</t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>both iterative and recursive; m = (l+r) //2, m = l+1, r = m</t>
+  </si>
+  <si>
+    <t>use a stack</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>O(n^2), for len(numRows), construct [1]*(i+1) list,if n&gt;=2, manipulate ptr in prevRow to construct currRow/ pad 0 to prevArr then cunstruct currRow</t>
+  </si>
+  <si>
+    <t>27. Remove Element</t>
+  </si>
+  <si>
+    <t>use a ptr k to keep the position of ele == val (increment only when nums[i] != val) - code: if nums[i] != val: swap nums[i] &amp; nums[k] and k ++; else do nothing, return k</t>
   </si>
 </sst>
 </file>
@@ -736,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,495 +847,531 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>106</v>
+      <c r="A10" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="D50">
+      <c r="D53">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD59152-E9DD-4B1C-9559-446F4BADE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13503D50-268C-4AB4-AC94-7045F24C4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -401,6 +401,24 @@
   </si>
   <si>
     <t>use a ptr k to keep the position of ele == val (increment only when nums[i] != val) - code: if nums[i] != val: swap nums[i] &amp; nums[k] and k ++; else do nothing, return k</t>
+  </si>
+  <si>
+    <t>929. Unique Email Addresses</t>
+  </si>
+  <si>
+    <t>just follow instruction; for substitution of built in split - use a 2 while loops and 1 ptr</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>2 haspmaps; focus on the return False condition - (s[i] in smap and val != t[i]) and (t[i] in tmap and val != s[i])</t>
+  </si>
+  <si>
+    <t>605. Can Place Flowers</t>
+  </si>
+  <si>
+    <t>pad  0 to beginning and end, skip 1st and last , use combination in 1 if instead of nested if for readability</t>
   </si>
 </sst>
 </file>
@@ -757,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,509 +887,542 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
+      <c r="A11" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>106</v>
+      <c r="A12" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
+      <c r="A13" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+      <c r="A18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="D53">
+      <c r="D56">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13503D50-268C-4AB4-AC94-7045F24C4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF71843-68C5-4852-8654-898F3B3CDFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>11. Container With Most Water</t>
-  </si>
-  <si>
-    <t>one pointer travelling from 0 and one from the right most, keep moving smaller ptrs</t>
   </si>
   <si>
     <t>Sliding Window</t>
@@ -419,6 +416,27 @@
   </si>
   <si>
     <t>pad  0 to beginning and end, skip 1st and last , use combination in 1 if instead of nested if for readability</t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>one pointer travelling from 0 and one from the right most, keep moving ptr of the smaller value</t>
+  </si>
+  <si>
+    <t>2 ptrs</t>
+  </si>
+  <si>
+    <t>for each pt: water = min(maxL,maxR) - height[i]; create memory for maxL and maxR then compute; because only need min(maxL, maxR), can eliminate memory by 2 ptrs</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>use another stack recording each values' corresponding minimum</t>
   </si>
 </sst>
 </file>
@@ -775,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,101 +840,101 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,13 +950,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,88 +1032,94 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1106,324 +1130,351 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C49" t="s">
         <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>72</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>84</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
         <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>87</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1449,36 +1500,36 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF71843-68C5-4852-8654-898F3B3CDFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC766C-8A2B-4381-8F01-A82A42837A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>use another stack recording each values' corresponding minimum</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>brute force O(kn), k is the len(s1); can be O(n): initialize 2 arrs/ hashmap to store char: appearance, then initialize a variable matches (how many matches in 2 arrs), use sliding window to update matches (same operation on left &amp; right)</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,378 +1108,389 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>80</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC766C-8A2B-4381-8F01-A82A42837A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3CFE5-79B9-45A1-83AD-7FE37E63B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -443,6 +443,24 @@
   </si>
   <si>
     <t>brute force O(kn), k is the len(s1); can be O(n): initialize 2 arrs/ hashmap to store char: appearance, then initialize a variable matches (how many matches in 2 arrs), use sliding window to update matches (same operation on left &amp; right)</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>think bottom-up, use global variable currMax (nonlocal) in nested function</t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>think bottom-up, use dfs returning [balance,height]; balance = True only if left&amp;right are balanced and abs(leftH-rightH) &lt;= 1</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>binary search to find the row index then binary search on that row</t>
   </si>
 </sst>
 </file>
@@ -799,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,323 +1192,356 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
         <v>80</v>
       </c>
-      <c r="D60">
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD3CFE5-79B9-45A1-83AD-7FE37E63B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A8448-82F3-476A-93F5-D54A8C7FEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>binary search to find the row index then binary search on that row</t>
+  </si>
+  <si>
+    <t>1D Dynamic Programming</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>if n&lt;=3, return n; if first step is 1, n-1 distinct ways, if first step is 2, n-2 distinct ways, therefore, (n-1) + (n-2) ways. Canuse an array to store or only a temp</t>
   </si>
 </sst>
 </file>
@@ -817,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,6 +1552,22 @@
       </c>
       <c r="C71" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A8448-82F3-476A-93F5-D54A8C7FEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CD3E3C-D57E-4A8A-826A-B3F24FB8D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>if n&lt;=3, return n; if first step is 1, n-1 distinct ways, if first step is 2, n-2 distinct ways, therefore, (n-1) + (n-2) ways. Canuse an array to store or only a temp</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>O(n) space and time; do operation when encounter "+-*/" then append int(result); when encounter number, append int(char) to the stack.</t>
   </si>
 </sst>
 </file>
@@ -826,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,399 +1180,410 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
         <v>143</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CD3E3C-D57E-4A8A-826A-B3F24FB8D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7D7E0-E4D3-4EC1-9007-BC8EC5199C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="153">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -476,6 +476,27 @@
   </si>
   <si>
     <t>O(n) space and time; do operation when encounter "+-*/" then append int(result); when encounter number, append int(char) to the stack.</t>
+  </si>
+  <si>
+    <t>1D DP</t>
+  </si>
+  <si>
+    <t>1. brute force by recursion</t>
+  </si>
+  <si>
+    <t>2. add memoization (top down)</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>bottom up</t>
+  </si>
+  <si>
+    <t>746. Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>compute minCost of each step (top to bottom), use a dict to store index: minCost/ overwrite original array/ keep 2 variable for recording minCost. minCost[i] = min(minCost[i] + minCost[i+1], minCost[i] + minCost[i+2])</t>
   </si>
 </sst>
 </file>
@@ -832,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,6 +1608,17 @@
         <v>143</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1595,49 +1627,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>93</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7D7E0-E4D3-4EC1-9007-BC8EC5199C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD073F-FAED-406F-8425-C6A33FD95BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>compute minCost of each step (top to bottom), use a dict to store index: minCost/ overwrite original array/ keep 2 variable for recording minCost. minCost[i] = min(minCost[i] + minCost[i+1], minCost[i] + minCost[i+2])</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>compute currMax of rach house backwards, use dict to store index: currMax; currMax = max(arr[i] + currMax[i+1], currMax[i])</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>use House Robber solution as helper function, run on nums[1:] and nums[:-1], special case is len(nums) == 1</t>
   </si>
 </sst>
 </file>
@@ -853,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
@@ -1617,6 +1629,28 @@
       </c>
       <c r="C75" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD073F-FAED-406F-8425-C6A33FD95BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74D90E-6E68-4964-A463-6C5F747C3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -509,6 +509,24 @@
   </si>
   <si>
     <t>use House Robber solution as helper function, run on nums[1:] and nums[:-1], special case is len(nums) == 1</t>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>back tracking, return True/ False and dynamic sum, add before  spliting and subcstract after splitting</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>dfs, each step make 2 decisions: 1. go with same index; 2. pop then go to the next index. Append cur.copy to res to continue to use cur</t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfs, sort the array first to help skipping same candidates; use for loop (and pre=candidates[i] to help skip), nest dfs in the for loop; compare to Combination Sum, only one decision each step  </t>
   </si>
 </sst>
 </file>
@@ -865,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,62 +1612,95 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74D90E-6E68-4964-A463-6C5F747C3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1BF27-81BC-4B17-9DA8-3013D91FFCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -527,6 +527,30 @@
   </si>
   <si>
     <t xml:space="preserve">dfs, sort the array first to help skipping same candidates; use for loop (and pre=candidates[i] to help skip), nest dfs in the for loop; compare to Combination Sum, only one decision each step  </t>
+  </si>
+  <si>
+    <t>374. Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Same as binary search</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>dfs, inorder: left -&gt; append -&gt; right; preorder: append -&gt; left -&gt; right; postorder: left -&gt; right -&gt; append</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>bfs, append the last (rightmost) node value to the result only</t>
   </si>
 </sst>
 </file>
@@ -883,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,439 +1292,483 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>139</v>
+      <c r="A38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
         <v>80</v>
       </c>
-      <c r="D64">
+      <c r="D68">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1BF27-81BC-4B17-9DA8-3013D91FFCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A5624-54E8-446F-BE2B-45B6F07E2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="178">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -551,6 +551,27 @@
   </si>
   <si>
     <t>bfs, append the last (rightmost) node value to the result only</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualize as a tree. Backtracking. each step 2 choices: 1. append ( when openN &lt; n; 2. append ) when closeN &lt; openN (pop after both choice). </t>
+  </si>
+  <si>
+    <t>backtracking 3 keys:</t>
+  </si>
+  <si>
+    <t>choices, constraints, converge to a same goal</t>
+  </si>
+  <si>
+    <t>for "generate ALL"/ "compute ALL", consider backtracking</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>visualise use tree, each step 2 choices: include I and not include I; return when reach the bottom of the tree</t>
   </si>
 </sst>
 </file>
@@ -907,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,499 +1297,521 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>80</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1780,15 +1823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1798,8 +1841,11 @@
       <c r="K1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1809,8 +1855,11 @@
       <c r="K2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -1820,8 +1869,11 @@
       <c r="K3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -1832,12 +1884,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>93</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A5624-54E8-446F-BE2B-45B6F07E2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10484CDC-93D7-4114-A562-9E89BFC05737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="186">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -572,6 +572,30 @@
   </si>
   <si>
     <t>visualise use tree, each step 2 choices: include I and not include I; return when reach the bottom of the tree</t>
+  </si>
+  <si>
+    <t>https://realpython.com/copying-python-objects/</t>
+  </si>
+  <si>
+    <t>shallow VS deep copy</t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>break down to smaller lists, draw a tree, use a for loop: pop -&gt; recursive call -&gt;append popped -&gt; append to res -&gt; append popped</t>
+  </si>
+  <si>
+    <t>90. Subsets II</t>
+  </si>
+  <si>
+    <t>similar to Subset, but need a check before right tree (not including current element)</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>hashmap, for O(1) memory : Boyer Moore Algo</t>
   </si>
 </sst>
 </file>
@@ -928,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,745 +1097,778 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
+      <c r="A14" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>80</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1826,7 +1883,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,6 +1950,12 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10484CDC-93D7-4114-A562-9E89BFC05737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A3683-C61C-49FE-80D6-3189EAC7F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t>hashmap, for O(1) memory : Boyer Moore Algo</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <t>use a stack to append [temp, index] pair, result[index] is curIndex- index on the stack</t>
+  </si>
+  <si>
+    <t>853. Car Fleet</t>
+  </si>
+  <si>
+    <t>sort position and create position, speed pair list of list, calc distanceToTarget and time array, traverse backwards the time array. When time[i] &gt; time[i+1]: fleet += 1, maxTime = poped value</t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>use a dictionary {None: None} to store the copies, iterate twice: 1 for establish newNodes, 1 for mapping next and random</t>
   </si>
 </sst>
 </file>
@@ -952,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,542 +1351,575 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>80</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A3683-C61C-49FE-80D6-3189EAC7F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0291194-F63D-4B35-A4E5-C678DE3F4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -614,6 +614,18 @@
   </si>
   <si>
     <t>use a dictionary {None: None} to store the copies, iterate twice: 1 for establish newNodes, 1 for mapping next and random</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>read commented for more readable code</t>
+  </si>
+  <si>
+    <t>981. Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>use binary search (update when values[m][1] &lt;= timestamp) - O(log(n)); {key: [[time, value]]} over {key: {time: value}}</t>
   </si>
 </sst>
 </file>
@@ -970,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,483 +1455,505 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0291194-F63D-4B35-A4E5-C678DE3F4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E733D02D-6500-4401-B543-DA0EB66F79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>use binary search (update when values[m][1] &lt;= timestamp) - O(log(n)); {key: [[time, value]]} over {key: {time: value}}</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>backtracking to compute every substring (using ptr and list slices), only proceed when current substring of current partition is palin</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,51 +1915,62 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E733D02D-6500-4401-B543-DA0EB66F79B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1B16D6-5E7F-4C15-8D98-03DDBABBCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Other Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="leetcode contest note" sheetId="3" r:id="rId2"/>
+    <sheet name="Other Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="205">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -632,13 +633,34 @@
   </si>
   <si>
     <t>backtracking to compute every substring (using ptr and list slices), only proceed when current substring of current partition is palin</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>numpy array is much faster than list, for high performance requirement on numbers, use numpy array over list</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +672,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -690,20 +719,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -1981,6 +2014,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44941</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <v>8579</v>
+      </c>
+      <c r="E2">
+        <v>22199</v>
+      </c>
+      <c r="F2" s="6">
+        <f>D2/E2</f>
+        <v>0.38645884949772513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
   <dimension ref="A1:P6"/>
   <sheetViews>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1B16D6-5E7F-4C15-8D98-03DDBABBCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E36A2-D30A-4E3A-9DB1-8B8A906C4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="211">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>think i as the node ptr, nums[i] as the value, use fast slow ptr, (Floyd's algo: after fast and slow meet, use slow2 ptr for another while loop to find the start of the cycle), return slow</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>use doubly linked list because need reorder, cache is the map of key:Node pair. Need remove (at any pos) and add (to the right most pos) helper function and left and right dummy nodes.</t>
+  </si>
+  <si>
+    <t>1448. Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>dfs, passing curMax in function call, use global variable or use NeetCode method</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,423 +1605,456 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>80</v>
       </c>
-      <c r="D75">
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2017,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E36A2-D30A-4E3A-9DB1-8B8A906C4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C9836-E11E-4AE2-BFD9-481A7D2A21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="217">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -672,6 +672,24 @@
   </si>
   <si>
     <t>dfs, passing curMax in function call, use global variable or use NeetCode method</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>355. Design Twitter</t>
+  </si>
+  <si>
+    <t>see notes; count: decrementing as python only has minHeap follow &amp; unfollow: use map {userID:setOfUser}; user tweet: use map {userID:listOfTweet; get tweet: use min Heap: [count, tweetID, userID, index - 1] (use 1 for and 1 while loop)</t>
+  </si>
+  <si>
+    <t>use maxHeap and queue, queue storing [count, time+n]; maxHeap only store count (frequency), no need to care character</t>
+  </si>
+  <si>
+    <t>quick select O(n) average but worst O(n^2); minHeap O(nlog(k))</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,155 +1924,188 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C9836-E11E-4AE2-BFD9-481A7D2A21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAEE9D-34E3-4966-BBEF-E62200746434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="224">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -690,6 +690,27 @@
   </si>
   <si>
     <t>quick select O(n) average but worst O(n^2); minHeap O(nlog(k))</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>backtracking incrementing the digitPosition, create a map and use a for loop in dfs to loop through list elements</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>when encounter a "1": island += 1, use bfs or dfs to make all adjacent 1 visited; then search for another "1", until the bottom right corner.</t>
+  </si>
+  <si>
+    <t>323. Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>union find, use 2 lists: 1parent &amp; 1 rank. Merge smaler rank to larger rank head, if same parent, return 0, else each merge return 1; res starts at n, decrement 1 by rach merge</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,51 +2082,89 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>141</v>
+      <c r="A97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>143</v>
+      <c r="A98" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>151</v>
+      <c r="A99" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAEE9D-34E3-4966-BBEF-E62200746434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C3D95-7EA2-405B-9265-5951DFB6E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="236">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -710,7 +710,43 @@
     <t>323. Number of Connected Components in an Undirected Graph</t>
   </si>
   <si>
-    <t>union find, use 2 lists: 1parent &amp; 1 rank. Merge smaler rank to larger rank head, if same parent, return 0, else each merge return 1; res starts at n, decrement 1 by rach merge</t>
+    <t>Matrix (Graph) BFS VS DFS</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>O(n*4^n*m)</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>So BFS is more efficient on finding the shortest path</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>like numberof Island, DFS or BFS</t>
+  </si>
+  <si>
+    <t>547. Number of Provinces</t>
+  </si>
+  <si>
+    <t>very similar to 323, union find</t>
+  </si>
+  <si>
+    <t>union find, use 2 lists: 1parent &amp; 1 rank. Merge smaller rank to larger rank head, if same parent, return 0, else each merge return 1; res starts at n, decrement 1 by each merge</t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>remember rotted oranges infects other simultaneously, so need to go through the matrix, append all rotted to the queue, then BFS; count/ track the fresh oranges as well, if #fresh &gt; 0, return -1</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,55 +2152,88 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2237,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2383,32 @@
         <v>178</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BB6CF9A3-D2F2-4445-B402-FE3DE89317A4}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C3D95-7EA2-405B-9265-5951DFB6E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24599ABE-6CA2-48EC-8175-4552EAAA6E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="242">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -747,6 +747,24 @@
   </si>
   <si>
     <t>remember rotted oranges infects other simultaneously, so need to go through the matrix, append all rotted to the queue, then BFS; count/ track the fresh oranges as well, if #fresh &gt; 0, return -1</t>
+  </si>
+  <si>
+    <t>133. Clone Graph</t>
+  </si>
+  <si>
+    <t>dfs, use old:new dict. 2 base cases: 1 - node in dict: return dict[node] 2 - create new copy in the dict &amp; at the end return copy</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>dfs, use course:prerequisite dict and a visiting set; base cases: 1.dict[i] = [] -&gt; True, 2. I in visited -&gt; false 3. add I in visited, for pre in pres, if not dfs(pre) -&gt; false 4. remove I from visited, tuen dict[i] to [], return True</t>
+  </si>
+  <si>
+    <t>417. Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>start from edges, go backwards to find which cell can flow in to pac / atl, then find common cells; conditions in dfs is reversed, return when (cur&lt; pre)</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,51 +2207,84 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24599ABE-6CA2-48EC-8175-4552EAAA6E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48851EFA-5A18-4448-9FDD-F4E8F4AF0CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="244">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -765,6 +765,12 @@
   </si>
   <si>
     <t>start from edges, go backwards to find which cell can flow in to pac / atl, then find common cells; conditions in dfs is reversed, return when (cur&lt; pre)</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>like 417, use 2 sets: cap &amp; uncap, run dfs on all border "O", then for all (r,c)in cap, turn to X</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,51 +2246,62 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48851EFA-5A18-4448-9FDD-F4E8F4AF0CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CAB4CA-930A-405A-9AD4-E46F1F6DB05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="245">
   <si>
     <t>NeetCode - Blind 75</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>like 417, use 2 sets: cap &amp; uncap, run dfs on all border "O", then for all (r,c)in cap, turn to X</t>
+  </si>
+  <si>
+    <t>practise bitwise operation questions</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,6 +2368,27 @@
       <c r="F2" s="6">
         <f>D2/E2</f>
         <v>0.38645884949772513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44948</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3">
+        <v>8243</v>
+      </c>
+      <c r="E3">
+        <v>16012</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3/E3</f>
+        <v>0.51480139895078691</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CAB4CA-930A-405A-9AD4-E46F1F6DB05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DBF75-957D-4B08-8BA3-05822CA5F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="245">
-  <si>
-    <t>NeetCode - Blind 75</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="247">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -774,6 +771,15 @@
   </si>
   <si>
     <t>practise bitwise operation questions</t>
+  </si>
+  <si>
+    <t>NeetCode.io</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>nested loops for O(n*m); use a stack for O(n+m)</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,866 +1162,866 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>184</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
+      <c r="A15" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>130</v>
+      <c r="A26" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>133</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>188</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
+      <c r="A41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>163</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
+      <c r="A48" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>207</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>52</v>
       </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>167</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
         <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>99</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,10 +2029,10 @@
         <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,160 +2040,160 @@
         <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>94</v>
       </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>157</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>217</v>
       </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>232</v>
@@ -2195,117 +2201,128 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>242</v>
       </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
-        <v>143</v>
+      <c r="A109" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
         <v>151</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>155</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2331,22 +2348,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
         <v>202</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,7 +2374,7 @@
         <v>44941</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>8579</v>
@@ -2378,7 +2395,7 @@
         <v>44948</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3">
         <v>8243</v>
@@ -2408,97 +2425,97 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
-        <v>147</v>
-      </c>
       <c r="P1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" t="s">
         <v>224</v>
-      </c>
-      <c r="K9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DBF75-957D-4B08-8BA3-05822CA5F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF497845-5E09-4896-8A1A-EA3A94E90A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="253">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -780,6 +780,24 @@
   </si>
   <si>
     <t>nested loops for O(n*m); use a stack for O(n+m)</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topological sort: dfs, use a studied set and a visited set, similar to I but no need to clean up the dict;  </t>
+  </si>
+  <si>
+    <t>663 · Walls and Gates</t>
+  </si>
+  <si>
+    <t>like rotting tomatoes, think backwards (from the gates instead of rooms) append all gates to the queue then BFS - or chains are faster than and chain;</t>
+  </si>
+  <si>
+    <t>724. Find Pivot Index</t>
+  </si>
+  <si>
+    <t>calc total sum first, then compute left &amp; right sum each step in a loop</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,1014 +1332,1047 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
+      <c r="A16" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>79</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>155</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF497845-5E09-4896-8A1A-EA3A94E90A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DD16B-482E-4A92-939A-E6ACA24A1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="260">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -798,6 +798,27 @@
   </si>
   <si>
     <t>calc total sum first, then compute left &amp; right sum each step in a loop</t>
+  </si>
+  <si>
+    <t>684. Redundant Connection</t>
+  </si>
+  <si>
+    <t>union find, return edge when union returns false (detected cycle)</t>
+  </si>
+  <si>
+    <t>178 · Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>union find, like above but need also count connected components, if &gt; 1, return False (tree only have 1 connected subgraph)</t>
+  </si>
+  <si>
+    <t>union find: connected components/ valid tree/ redundant connections… things about connection</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start from the middle of the substring, expand 2 ptrs outwards if s[l] == s[r]; need check for both odd length and even length (can be done in 1 for loop &amp; 2 while loops (nested in the for loop)) </t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,139 +2262,172 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2466,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,6 +2623,11 @@
         <v>227</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BB6CF9A3-D2F2-4445-B402-FE3DE89317A4}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DD16B-482E-4A92-939A-E6ACA24A1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A125C6-9779-4113-9657-2AD0612ECEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="268">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -819,6 +819,30 @@
   </si>
   <si>
     <t xml:space="preserve">start from the middle of the substring, expand 2 ptrs outwards if s[l] == s[r]; need check for both odd length and even length (can be done in 1 for loop &amp; 2 while loops (nested in the for loop)) </t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>same logic as 5.: expand from center of string</t>
+  </si>
+  <si>
+    <t>why djiskstra is needed: BFS only works for unweighted graphs</t>
+  </si>
+  <si>
+    <t>Advanced Graph</t>
+  </si>
+  <si>
+    <t>743. Network Delay Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dijsktra, use minheap, while minHeap: pop the smallest and update time, update all neighbours </t>
+  </si>
+  <si>
+    <t>1514. Path with Maximum Probability</t>
+  </si>
+  <si>
+    <t>dijsktra, use maxHeap, similar to above</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,62 +2396,100 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2520,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,6 +2690,11 @@
         <v>257</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BB6CF9A3-D2F2-4445-B402-FE3DE89317A4}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A125C6-9779-4113-9657-2AD0612ECEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AB651-C5D3-49FA-8F81-1733E9370014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="270">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -500,9 +500,6 @@
     <t>198. House Robber</t>
   </si>
   <si>
-    <t>compute currMax of rach house backwards, use dict to store index: currMax; currMax = max(arr[i] + currMax[i+1], currMax[i])</t>
-  </si>
-  <si>
     <t>213. House Robber II</t>
   </si>
   <si>
@@ -843,6 +840,15 @@
   </si>
   <si>
     <t>dijsktra, use maxHeap, similar to above</t>
+  </si>
+  <si>
+    <t>1584. Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>Prim's algo, like dijsktra, need to compute adjList first (finding minimum spanning tree)</t>
+  </si>
+  <si>
+    <t>compute currMax of each house backwards, use dict to store index: currMax; currMax = max(arr[i] + currMax[i+1], currMax[i])</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1231,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,35 +1362,35 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,35 +1619,35 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>187</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,13 +1668,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,13 +1712,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>193</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,13 +1761,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>191</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,13 +1783,13 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,24 +1805,24 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>204</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,24 +1906,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>164</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>166</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,13 +1950,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>168</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,13 +1983,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>208</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,35 +2106,35 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>212</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,35 +2155,35 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>175</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>179</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,303 +2199,314 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>158</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>160</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>181</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>216</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>219</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" t="s">
         <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>255</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
         <v>228</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>233</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B108" t="s">
         <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>235</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>237</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>247</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>239</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
         <v>241</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
         <v>60</v>
       </c>
       <c r="C116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
         <v>260</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2515,22 +2532,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
         <v>201</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2558,7 @@
         <v>44941</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>8579</v>
@@ -2562,7 +2579,7 @@
         <v>44948</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3">
         <v>8243</v>
@@ -2601,7 +2618,7 @@
         <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2615,7 +2632,7 @@
         <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2629,7 +2646,7 @@
         <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2653,46 +2670,46 @@
         <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" t="s">
         <v>223</v>
-      </c>
-      <c r="K9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" t="s">
         <v>225</v>
-      </c>
-      <c r="K10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AB651-C5D3-49FA-8F81-1733E9370014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D19D8B-9EB7-414C-A8BA-8CC863530420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="271">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t>compute currMax of each house backwards, use dict to store index: currMax; currMax = max(arr[i] + currMax[i+1], currMax[i])</t>
+  </si>
+  <si>
+    <t>search on Q2 (Count Collisions of Monkeys on a Polygon) later</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -2517,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,6 +2593,27 @@
       <c r="F3" s="6">
         <f>D3/E3</f>
         <v>0.51480139895078691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44953</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>9590</v>
+      </c>
+      <c r="E4">
+        <v>21232</v>
+      </c>
+      <c r="F4" s="6">
+        <f>D4/E4</f>
+        <v>0.45167671439336848</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D19D8B-9EB7-414C-A8BA-8CC863530420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED0076-13A6-4AF8-B218-F8DF32A55103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="277">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -852,6 +852,24 @@
   </si>
   <si>
     <t>search on Q2 (Count Collisions of Monkeys on a Polygon) later</t>
+  </si>
+  <si>
+    <t>Bellman-ford: can deal with negative weights</t>
+  </si>
+  <si>
+    <t>787. Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Bellman-ford algo, use 2 lists (1 is temp) with n entries, initiate with all inf values; then loop through edges for k+1 times</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logically: when in infinity loop, there must be a number we have seen, use a helper function and fast-slow pointer (linkedlist cycle detection). mathematically: base case: n &lt; 10: 1 and 7 return true else false; while ture, perform operation as description; </t>
   </si>
 </sst>
 </file>
@@ -922,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -930,6 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1219,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,74 +2461,101 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5D96A-E969-4996-897E-90E2435ADE82}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2623,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDE21C-70B8-4212-8C19-0C4794CBEC94}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,6 +2782,11 @@
         <v>261</v>
       </c>
     </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BB6CF9A3-D2F2-4445-B402-FE3DE89317A4}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED0076-13A6-4AF8-B218-F8DF32A55103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E06A23-71EE-411F-B098-ACDB4737CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="284">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -870,6 +870,27 @@
   </si>
   <si>
     <t xml:space="preserve">logically: when in infinity loop, there must be a number we have seen, use a helper function and fast-slow pointer (linkedlist cycle detection). mathematically: base case: n &lt; 10: 1 and 7 return true else false; while ture, perform operation as description; </t>
+  </si>
+  <si>
+    <t>2D Dynamic Programming</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>start thinking top down recursion then figure out the bottom up appeoach; bottom up is slower but less memory compare to memoization in this question.</t>
+  </si>
+  <si>
+    <t>63. Unique Paths II</t>
+  </si>
+  <si>
+    <t>similar to 62, need to add more constraints (base cases)</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>draw out the 2D matrix, traverse backwards right to left, bot to top, if not equal, max(below, right), if equal, 1 + 右下角; (top down memo method TLE)</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,17 +2565,55 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B131" t="s">
         <v>60</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C131" t="s">
         <v>276</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E06A23-71EE-411F-B098-ACDB4737CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF26F03-1BD2-4910-BBF3-BF2077A822F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="291">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -891,6 +891,27 @@
   </si>
   <si>
     <t>draw out the 2D matrix, traverse backwards right to left, bot to top, if not equal, max(below, right), if equal, 1 + 右下角; (top down memo method TLE)</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>while n &gt; 0: if n&amp;1 == 1: counter++; n = n&gt;&gt;1 (n/2; 0010 -&gt; 0001)</t>
+  </si>
+  <si>
+    <t>190. Reverse Bits</t>
+  </si>
+  <si>
+    <t>for I in range(32): 1. bit = n&gt;&gt;I &amp; 1 (get cur bit) 2. res = res | bit&lt;&lt;(31-i) (put curBit in its position); 101000 | 010000 = 111000</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>use 191 as a helper function and compute result in a for loop. (there is a dp way solving it, but hard to understand)</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2585,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
+      <c r="A126" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2615,6 +2636,44 @@
       </c>
       <c r="C131" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF26F03-1BD2-4910-BBF3-BF2077A822F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8508522-7C2D-4AD0-BDB8-0B2D6F7AEB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="293">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t>use 191 as a helper function and compute result in a for loop. (there is a dp way solving it, but hard to understand)</t>
+  </si>
+  <si>
+    <t>448. Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>O(n) memo solution: use a set then turn into a list; O(1) memo solution: for n in nums: turn nums[abs(n)-1]into -(abs(n)) | then for I,n in nums: res.append(i+1) if n &gt; 0. (using abs for thoes duplicated numbers)</t>
   </si>
 </sst>
 </file>
@@ -982,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -990,7 +996,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,1221 +1463,1232 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
+      <c r="A17" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
       </c>
       <c r="C73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>79</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s">
         <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
         <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>60</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B133" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8508522-7C2D-4AD0-BDB8-0B2D6F7AEB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B0F8B-5A68-4764-A24D-584A0C19871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="295">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t>O(n) memo solution: use a set then turn into a list; O(1) memo solution: for n in nums: turn nums[abs(n)-1]into -(abs(n)) | then for I,n in nums: res.append(i+1) if n &gt; 0. (using abs for thoes duplicated numbers)</t>
+  </si>
+  <si>
+    <t>1189. Maximum Number of Balloons</t>
+  </si>
+  <si>
+    <t>1 set(validChar) and 1 map(counter), min(counter.values()) (remember counter['l'] and counter['o'] need to // 2.</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,1221 +1480,1232 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
+      <c r="A18" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>79</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
         <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B117" t="s">
         <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
         <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>60</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B134" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\NeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B0F8B-5A68-4764-A24D-584A0C19871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CBA7D-2628-D04F-9D6C-A0BA88825D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2460" windowWidth="30800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -924,6 +924,12 @@
   </si>
   <si>
     <t>1 set(validChar) and 1 map(counter), min(counter.values()) (remember counter['l'] and counter['o'] need to // 2.</t>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+  </si>
+  <si>
+    <t>if use 1 hashmap(char:word), check length; if use 2, no need check length</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1012,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,30 +1297,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="192.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="192.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>182</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>244</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>250</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>291</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>293</v>
       </c>
@@ -1490,1222 +1496,1233 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
       </c>
       <c r="C75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>79</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="B106" t="s">
         <v>60</v>
       </c>
       <c r="C106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>60</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B117" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="B118" t="s">
         <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
         <v>60</v>
       </c>
       <c r="C119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>60</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>60</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2723,14 +2740,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -2750,7 +2767,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>0.38645884949772513</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2792,7 +2809,7 @@
         <v>0.51480139895078691</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2826,9 +2843,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2859,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2856,7 +2873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>88</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>
@@ -2881,12 +2898,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>92</v>
       </c>
@@ -2897,12 +2914,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>222</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>224</v>
       </c>
@@ -2918,22 +2935,22 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>271</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CBA7D-2628-D04F-9D6C-A0BA88825D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C158C5-3A10-4945-A5C2-F8F55AEBE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2460" windowWidth="30800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="299">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -930,6 +930,12 @@
   </si>
   <si>
     <t>if use 1 hashmap(char:word), check length; if use 2, no need check length</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>use a helper function returning boolean; similar to above, when reach different char, return helper(l+1, r) or helper(l, r - 1)</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1590,1139 +1596,1150 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
+      <c r="A28" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>79</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B118" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
         <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>60</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B136" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C158C5-3A10-4945-A5C2-F8F55AEBE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5192679-54E0-3640-AF0E-B0ED2D80AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="301">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -936,6 +936,12 @@
   </si>
   <si>
     <t>use a helper function returning boolean; similar to above, when reach different char, return helper(l+1, r) or helper(l, r - 1)</t>
+  </si>
+  <si>
+    <t>1984. Minimum Difference Between Highest and Lowest of K Scores</t>
+  </si>
+  <si>
+    <t>sort the array then sliding window</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,1139 +1613,1150 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
+      <c r="A29" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>79</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B108" t="s">
         <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B119" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s">
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>60</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5192679-54E0-3640-AF0E-B0ED2D80AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB44A1-CF16-8B41-BD28-92D6487FB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="303">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>sort the array then sliding window</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>2 ptrs, 1 from left and 1 from right; use temp to swap at each iteration</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,1139 +1630,1150 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>21</v>
+      <c r="A30" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>79</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B109" t="s">
         <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B121" t="s">
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>60</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B138" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB44A1-CF16-8B41-BD28-92D6487FB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD78A0-FD8A-414F-8679-997FFC957E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="305">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -948,6 +948,12 @@
   </si>
   <si>
     <t>2 ptrs, 1 from left and 1 from right; use temp to swap at each iteration</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>fill the array backwards (from largest to smallest); then take care of the leftover in num2 (simply fill it all in nums1 the front part)</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1641,1139 +1647,1150 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
+      <c r="A31" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>79</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B110" t="s">
         <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B121" t="s">
-        <v>60</v>
-      </c>
-      <c r="C121" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B123" t="s">
         <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>60</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B139" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD78A0-FD8A-414F-8679-997FFC957E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675DEF5-A760-5544-8A12-C2BC034B4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="307">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -954,6 +954,12 @@
   </si>
   <si>
     <t>fill the array backwards (from largest to smallest); then take care of the leftover in num2 (simply fill it all in nums1 the front part)</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>1 for loop, 1 extra pointer keeping the unique number possition(pos); only nums[pos] = nums[i] and increment pos by 1 when pre != cur</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScale="200" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -1658,1139 +1664,1150 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
+      <c r="A32" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>79</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
         <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
         <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>60</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B140" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675DEF5-A760-5544-8A12-C2BC034B4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE44301A-64F0-5C41-BDEC-704B4658175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="308">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>1 for loop, 1 extra pointer keeping the unique number possition(pos); only nums[pos] = nums[i] and increment pos by 1 when pre != cur</t>
+  </si>
+  <si>
+    <t>use bisect_left(nums, lower - nums[i])for lower bound; bisect_right(nums, upper - nums[i]} for higher bound. This method is double counting, and if l &lt;= I &lt; r, res -=1; return res // 2</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1877,937 +1880,946 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>79</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
         <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B125" t="s">
         <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>60</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B141" t="s">
-        <v>60</v>
-      </c>
-      <c r="C141" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE44301A-64F0-5C41-BDEC-704B4658175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B68A70-EDFE-8A4D-83BA-F52D566E8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="310">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>use bisect_left(nums, lower - nums[i])for lower bound; bisect_right(nums, upper - nums[i]} for higher bound. This method is double counting, and if l &lt;= I &lt; r, res -=1; return res // 2</t>
+  </si>
+  <si>
+    <t>2563. Count the Number of Fair Pairs</t>
+  </si>
+  <si>
+    <t>682. Baseball Game</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C38" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1798,1028 +1804,1041 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>143</v>
+      <c r="A45" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>79</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B113" t="s">
         <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B125" t="s">
         <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B126" t="s">
         <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>60</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B68A70-EDFE-8A4D-83BA-F52D566E8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819D73F-E19D-EA4A-85BF-6E043DA99291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="312">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>682. Baseball Game</t>
+  </si>
+  <si>
+    <t>225. Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>use 2 deque(), for pop &amp; top: move n-1 element to q2; get result; move elements back to q1</t>
   </si>
 </sst>
 </file>
@@ -1336,17 +1342,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="192.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,1030 +1821,1041 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>143</v>
+      <c r="A46" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>79</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
         <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B125" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s">
         <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B127" t="s">
         <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>60</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819D73F-E19D-EA4A-85BF-6E043DA99291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0AA2C8-64A4-6B42-AC91-681711E22E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="314">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -975,6 +975,12 @@
   </si>
   <si>
     <t>use 2 deque(), for pop &amp; top: move n-1 element to q2; get result; move elements back to q1</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t>similar to binary search, just return left at the end</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1914,948 +1920,959 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>308</v>
+      <c r="A55" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>79</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B126" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B127" t="s">
         <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s">
         <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>60</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0AA2C8-64A4-6B42-AC91-681711E22E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995A6C0-F5FA-5246-AB81-7DEAD221ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="316">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -981,6 +981,12 @@
   </si>
   <si>
     <t>similar to binary search, just return left at the end</t>
+  </si>
+  <si>
+    <t>441. Arranging Coins</t>
+  </si>
+  <si>
+    <t>brute force O(n), binary search using Gauss Formula mid/2*(mid+1) for each binary check is O(log(n)); using quadratic function solution formula once then floor it is O(1)</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1931,948 +1937,959 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>308</v>
+      <c r="A56" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
         <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>79</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
         <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B127" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
         <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
         <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>60</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/Neetcode/NeetCodePractice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995A6C0-F5FA-5246-AB81-7DEAD221ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151831E-3A1A-E047-9C8D-09695007EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="318">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -987,6 +987,12 @@
   </si>
   <si>
     <t>brute force O(n), binary search using Gauss Formula mid/2*(mid+1) for each binary check is O(log(n)); using quadratic function solution formula once then floor it is O(1)</t>
+  </si>
+  <si>
+    <t>234. Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>easy: use a list to store values then compare; O(1) memo: 1. fast/slow ptrs to find mid; 2.use an extra tmp ptr to reverse 2nd half of the linked list 3.compare prev and head until prev == None</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2041,855 +2047,866 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>190</v>
+      <c r="A66" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>79</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
         <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s">
         <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B130" t="s">
         <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>60</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151831E-3A1A-E047-9C8D-09695007EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE99A0-FD4E-8D4A-AA00-436E52362276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="320">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -993,6 +993,12 @@
   </si>
   <si>
     <t>easy: use a list to store values then compare; O(1) memo: 1. fast/slow ptrs to find mid; 2.use an extra tmp ptr to reverse 2nd half of the linked list 3.compare prev and head until prev == None</t>
+  </si>
+  <si>
+    <t>203. Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>use a dummy node (cur = dummy), while cur.next: do the check, return dummy.next</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2058,855 +2064,866 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>190</v>
+      <c r="A67" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>79</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
         <v>60</v>
       </c>
       <c r="C118" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B129" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B130" t="s">
         <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B131" t="s">
         <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>60</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B147" t="s">
-        <v>60</v>
-      </c>
-      <c r="C147" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE99A0-FD4E-8D4A-AA00-436E52362276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD86CA-4EA0-F842-917D-92399747F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="322">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>use a dummy node (cur = dummy), while cur.next: do the check, return dummy.next</t>
+  </si>
+  <si>
+    <t>75. Sort Colors</t>
+  </si>
+  <si>
+    <t>bucket sort (use a bucket of size n (#of distinct values); 1 pass - 2 ptrs + partition</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1578,264 +1584,264 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1846,1084 +1852,1095 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>79</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
         <v>60</v>
       </c>
       <c r="C119" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B130" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
         <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
         <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>60</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B148" t="s">
-        <v>60</v>
-      </c>
-      <c r="C148" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD86CA-4EA0-F842-917D-92399747F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6EC03-A70B-FF4D-A7A4-E80DB22E2AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="324">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1005,6 +1005,12 @@
   </si>
   <si>
     <t>bucket sort (use a bucket of size n (#of distinct values); 1 pass - 2 ptrs + partition</t>
+  </si>
+  <si>
+    <t>219. Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>use a set to store seen values (the window), when size exceeds, remove nums[l] and increase left, when nums[r] in window, return true</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1791,68 +1797,68 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>27</v>
+      <c r="A40" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1863,1084 +1869,1095 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>60</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B89" t="s">
         <v>60</v>
       </c>
       <c r="C89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>79</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B131" t="s">
-        <v>60</v>
-      </c>
-      <c r="C131" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
         <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
         <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>60</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B149" t="s">
-        <v>60</v>
-      </c>
-      <c r="C149" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6EC03-A70B-FF4D-A7A4-E80DB22E2AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481A93C-3901-4742-8B96-6FF3952742EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="326">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1011,6 +1011,12 @@
   </si>
   <si>
     <t>use a set to store seen values (the window), when size exceeds, remove nums[l] and increase left, when nums[r] in window, return true</t>
+  </si>
+  <si>
+    <t>303. Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>use prefix(the running sum) of the array; to understand why res = nums[right] - nums[left - 1], draw the array</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1589,287 +1595,287 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>320</v>
+      <c r="A20" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1880,1084 +1886,1095 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>79</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B121" t="s">
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B132" t="s">
-        <v>60</v>
-      </c>
-      <c r="C132" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
         <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>60</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481A93C-3901-4742-8B96-6FF3952742EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23803F-A117-1948-B80F-6EC4E76FD544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="328">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>use prefix(the running sum) of the array; to understand why res = nums[right] - nums[left - 1], draw the array</t>
+  </si>
+  <si>
+    <t>706. Design HashMap</t>
+  </si>
+  <si>
+    <t>1: use a list of list to store [key,val], use another set to store key; 2: use linked list</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1606,287 +1612,287 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>320</v>
+      <c r="A21" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1897,1084 +1903,1095 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>79</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
         <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>60</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B151" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23803F-A117-1948-B80F-6EC4E76FD544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77481B93-BD1C-B542-95CA-A9293356D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="332">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1022,7 +1022,19 @@
     <t>706. Design HashMap</t>
   </si>
   <si>
-    <t>1: use a list of list to store [key,val], use another set to store key; 2: use linked list</t>
+    <t>1: use a list of list to store [key,val], use another set to store key; 2: use list of linked list, remember to initialize the list using a dummy node.</t>
+  </si>
+  <si>
+    <t>876. Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>fast slow pointer, while condition: fast and fast.next - to get rid of if statement</t>
+  </si>
+  <si>
+    <t>83. Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>one while loop is slower, nested while loop faster: inner while: cur.next and cur.next.val == cur.val</t>
   </si>
 </sst>
 </file>
@@ -1390,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2143,855 +2155,877 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>190</v>
+      <c r="A72" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>47</v>
+      <c r="A73" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>79</v>
       </c>
-      <c r="D99">
+      <c r="D101">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>217</v>
+      <c r="A119" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>231</v>
+      <c r="A121" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>262</v>
+      <c r="A133" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" t="s">
-        <v>266</v>
+      <c r="A135" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
         <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>277</v>
+      <c r="A145" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>281</v>
+      <c r="A147" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B152" t="s">
         <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>288</v>
+      <c r="A153" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B154" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77481B93-BD1C-B542-95CA-A9293356D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AE5AC-E63A-0146-9D4C-80CF0CDC2809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="336">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1035,6 +1035,18 @@
   </si>
   <si>
     <t>one while loop is slower, nested while loop faster: inner while: cur.next and cur.next.val == cur.val</t>
+  </si>
+  <si>
+    <t>535. Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>use 2 dictionarys</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>sliding window with fixed size: 1, or use recursion</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1647,1385 +1659,1407 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>317</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>79</v>
       </c>
-      <c r="D101">
+      <c r="D103">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>217</v>
+      <c r="A121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>231</v>
+      <c r="A123" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>262</v>
+      <c r="A135" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" t="s">
-        <v>266</v>
+      <c r="A137" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B138" t="s">
         <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>277</v>
+      <c r="A147" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>281</v>
+      <c r="A149" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" t="s">
-        <v>60</v>
-      </c>
-      <c r="C152" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
         <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
-        <v>288</v>
+      <c r="A155" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AE5AC-E63A-0146-9D4C-80CF0CDC2809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C7F29F-07B9-4F40-AC89-17FC2F42D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36780" yWindow="420" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1047,6 +1047,12 @@
   </si>
   <si>
     <t>sliding window with fixed size: 1, or use recursion</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>use a dict to record sub array sums and corresponding number, check (curSum - k) in the dict to find out subarray sum number</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="149" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1670,286 +1676,286 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1960,1106 +1966,1117 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
         <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>79</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B127" t="s">
         <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B138" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B139" t="s">
         <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B140" t="s">
         <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>60</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C156" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C7F29F-07B9-4F40-AC89-17FC2F42D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F86A3F-D7B2-074C-A9CA-5B3C17F56041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36780" yWindow="420" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2840" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="340">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1053,6 +1053,12 @@
   </si>
   <si>
     <t>use a dict to record sub array sums and corresponding number, check (curSum - k) in the dict to find out subarray sum number</t>
+  </si>
+  <si>
+    <t>1930. Unique Length-3 Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>O(26n) way as in dile, try think of a O(2n)</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1687,286 +1693,286 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1977,1106 +1983,1117 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
         <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>79</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
         <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B139" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B140" t="s">
         <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>60</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B157" t="s">
-        <v>60</v>
-      </c>
-      <c r="C157" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F86A3F-D7B2-074C-A9CA-5B3C17F56041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B85D5-B5E2-F746-B30F-DA17DC7D871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2840" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="342">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1059,6 +1059,12 @@
   </si>
   <si>
     <t>O(26n) way as in dile, try think of a O(2n)</t>
+  </si>
+  <si>
+    <t>1963. Minimum Number of Swaps to Make the String Balanced</t>
+  </si>
+  <si>
+    <t>find the max num of unopened "]" then (max + 1) // 2; hint: 1 operation cancels (neutralize) 2 "]" -&gt; (max+1) // 2</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1715,275 +1721,275 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1994,1106 +2000,1117 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B98" t="s">
         <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>79</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
         <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B140" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B142" t="s">
         <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>60</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B158" t="s">
-        <v>60</v>
-      </c>
-      <c r="C158" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B85D5-B5E2-F746-B30F-DA17DC7D871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295FD69-3F38-5043-BFBE-AF77688FDCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="344">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1065,6 +1065,12 @@
   </si>
   <si>
     <t>find the max num of unopened "]" then (max + 1) // 2; hint: 1 operation cancels (neutralize) 2 "]" -&gt; (max+1) // 2</t>
+  </si>
+  <si>
+    <t>554. Brick Wall</t>
+  </si>
+  <si>
+    <t>use a hashmap as the counter if the gap, (think about prefix sum)</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,275 +1738,275 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2011,1106 +2017,1117 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
         <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>79</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
         <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" t="s">
-        <v>60</v>
-      </c>
-      <c r="C141" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B142" t="s">
         <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B143" t="s">
         <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>60</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B159" t="s">
-        <v>60</v>
-      </c>
-      <c r="C159" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295FD69-3F38-5043-BFBE-AF77688FDCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A1188-13BF-944B-9865-8C30F0C108F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="346">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1071,6 +1071,12 @@
   </si>
   <si>
     <t>use a hashmap as the counter if the gap, (think about prefix sum)</t>
+  </si>
+  <si>
+    <t>2001. Number of Pairs of Interchangeable Rectangles</t>
+  </si>
+  <si>
+    <t>use a dict to record number of same ratio, then calc each ratio's interchangeable number: sum(0 to n-1) or n*(n-1)/2</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1727,297 +1733,297 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2028,1106 +2034,1117 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
         <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>79</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B131" t="s">
         <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B142" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s">
         <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>60</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B160" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A1188-13BF-944B-9865-8C30F0C108F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAB89D-209D-AE41-95EF-061CACAAB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31960" yWindow="200" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="348">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1077,6 +1077,12 @@
   </si>
   <si>
     <t>use a dict to record number of same ratio, then calc each ratio's interchangeable number: sum(0 to n-1) or n*(n-1)/2</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>use 2 ptrs and a result array, build the result in reverse order (larger to smaller)</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1902,139 +1908,139 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>21</v>
+      <c r="A43" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2045,1106 +2051,1117 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
         <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>79</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B132" t="s">
         <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
         <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B145" t="s">
         <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B157" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>60</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B161" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B163" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAB89D-209D-AE41-95EF-061CACAAB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3711C7-AA49-7940-BF65-BA1F8B3F2382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31960" yWindow="200" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>use 2 ptrs and a result array, build the result in reverse order (larger to smaller)</t>
+  </si>
+  <si>
+    <t>1248. Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>subCount = 0 when a new odd number is met; when condition is met, for each r is not odd afterwards, there are [subCount] subarray added</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2023,35 +2029,35 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2062,1106 +2068,1117 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
         <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>79</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
         <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B144" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B145" t="s">
         <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B146" t="s">
         <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>60</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B162" t="s">
-        <v>60</v>
-      </c>
-      <c r="C162" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3711C7-AA49-7940-BF65-BA1F8B3F2382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AA5BE-76A1-FC46-BC65-A2B518F57446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31960" yWindow="200" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="352">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1089,6 +1089,12 @@
   </si>
   <si>
     <t>subCount = 0 when a new odd number is met; when condition is met, for each r is not odd afterwards, there are [subCount] subarray added</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>easy: use extra array; harder: reverse entire array, then reverse first k elements and reverse last(len(nums)-k) elements</t>
   </si>
 </sst>
 </file>
@@ -1456,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1948,127 +1954,127 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2079,1106 +2085,1117 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
         <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>79</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B134" t="s">
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
         <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B147" t="s">
         <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>60</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B163" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C164" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AA5BE-76A1-FC46-BC65-A2B518F57446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FF72D-4CEC-A14E-A2FA-597F5C1DD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31960" yWindow="200" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="354">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1095,6 +1095,12 @@
   </si>
   <si>
     <t>easy: use extra array; harder: reverse entire array, then reverse first k elements and reverse last(len(nums)-k) elements</t>
+  </si>
+  <si>
+    <t>974. Subarray Sums Divisible by K</t>
+  </si>
+  <si>
+    <t>see pdf, remember (sum1 - sum2) % k = 0 when sum1 == sum2, use prefix sum and dictionary to count the existing mods</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1707,385 +1713,385 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>60</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2096,1106 +2102,1117 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>79</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B135" t="s">
         <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B139" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B146" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
         <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
         <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>60</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B164" t="s">
-        <v>60</v>
-      </c>
-      <c r="C164" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FF72D-4CEC-A14E-A2FA-597F5C1DD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD659C49-C6F2-7D48-959C-1015B55B301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1101,6 +1101,12 @@
   </si>
   <si>
     <t>see pdf, remember (sum1 - sum2) % k = 0 when sum1 == sum2, use prefix sum and dictionary to count the existing mods</t>
+  </si>
+  <si>
+    <t>912. Sort an Array</t>
+  </si>
+  <si>
+    <t>Heap sort, quick sort and merge sort</t>
   </si>
 </sst>
 </file>
@@ -1468,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1746,363 +1752,363 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2113,1106 +2119,1117 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>60</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B104" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B105" t="s">
         <v>60</v>
       </c>
       <c r="C105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>79</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B136" t="s">
         <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B147" t="s">
-        <v>60</v>
-      </c>
-      <c r="C147" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
         <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B149" t="s">
         <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>60</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B165" t="s">
-        <v>60</v>
-      </c>
-      <c r="C165" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD659C49-C6F2-7D48-959C-1015B55B301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE536EB-3B95-D347-9989-F4C1C0318E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="358">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>1930. Unique Length-3 Palindromic Subsequences</t>
   </si>
   <si>
-    <t>O(26n) way as in dile, try think of a O(2n)</t>
-  </si>
-  <si>
     <t>1963. Minimum Number of Swaps to Make the String Balanced</t>
   </si>
   <si>
@@ -1107,6 +1104,15 @@
   </si>
   <si>
     <t>Heap sort, quick sort and merge sort</t>
+  </si>
+  <si>
+    <t>O(26n) way as in file, try think of a O(2n)</t>
+  </si>
+  <si>
+    <t>2017. Grid Game</t>
+  </si>
+  <si>
+    <t>think of prefix for row1 and postfix for row2, then actually 2*prefix is ok, bot2 can collect either top-right corner(preRow1[-1] - preRow[i]) or bottom-left corner(0 or preRow2[i - 1]) scores</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1719,13 +1725,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>352</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1752,13 +1758,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,341 +1791,341 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>344</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>340</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
         <v>346</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>348</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -2130,1106 +2136,1117 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
         <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
         <v>79</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B137" t="s">
         <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B141" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B148" t="s">
-        <v>60</v>
-      </c>
-      <c r="C148" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
         <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
         <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>60</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" t="s">
-        <v>60</v>
-      </c>
-      <c r="C166" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE536EB-3B95-D347-9989-F4C1C0318E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA71DA0-DECA-E043-A0F0-3706DBCC6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="360">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1113,6 +1113,12 @@
   </si>
   <si>
     <t>think of prefix for row1 and postfix for row2, then actually 2*prefix is ok, bot2 can collect either top-right corner(preRow1[-1] - preRow[i]) or bottom-left corner(0 or preRow2[i - 1]) scores</t>
+  </si>
+  <si>
+    <t>438. Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>sliding window with fixed size, use 1 hasmap (p's counter)</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1813,330 +1819,330 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2147,1106 +2153,1117 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
         <v>79</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B138" t="s">
         <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B149" t="s">
-        <v>60</v>
-      </c>
-      <c r="C149" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B150" t="s">
         <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
         <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>60</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B167" t="s">
-        <v>60</v>
-      </c>
-      <c r="C167" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jitianliang/Desktop/GithubRepos/NeetCodePractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA71DA0-DECA-E043-A0F0-3706DBCC6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224D24D-1044-2245-A667-E69E6E695B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34740" yWindow="60" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="362">
   <si>
     <t>Array &amp; Hashing</t>
   </si>
@@ -1119,6 +1119,12 @@
   </si>
   <si>
     <t>sliding window with fixed size, use 1 hasmap (p's counter)</t>
+  </si>
+  <si>
+    <t>28. Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>O(n*m). There is a KMP algo can solve in O(m=n)</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2115,45 +2121,45 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2164,1106 +2170,1117 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
         <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
         <v>79</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B139" t="s">
         <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
         <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B152" t="s">
         <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>60</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B168" t="s">
-        <v>60</v>
-      </c>
-      <c r="C168" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
         <v>290</v>
       </c>
     </row>
